--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Todo " sheetId="1" r:id="rId1"/>
     <sheet name="Defect" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Defect!$A$1:$G$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Todo '!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Defect!$A$1:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Todo '!$A$1:$H$4</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,9 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Implement enemy attack</t>
-  </si>
-  <si>
     <t>NA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,6 +95,89 @@
   </si>
   <si>
     <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy spawn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP bar to show player hp</t>
+  </si>
+  <si>
+    <t>EXP bar to show player exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New village</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build a new village in a new scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack leg animation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When player attacking and move at the same time, leg will not move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Scene</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -426,24 +506,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -465,8 +545,11 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -480,7 +563,7 @@
         <v>43096</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -488,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -497,9 +580,9 @@
         <v>43096</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -511,8 +594,129 @@
         <v>43096</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>43100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1">
+        <v>43100</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:H4"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -520,19 +724,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -554,26 +758,46 @@
       <c r="G1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="F2" s="1">
         <v>43096</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1">
+        <v>43100</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G1"/>
+  <autoFilter ref="A1:H2"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,22 @@
   </si>
   <si>
     <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimize player jump</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solved</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -715,6 +731,20 @@
         <v>43100</v>
       </c>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1">
+        <v>43103</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H4"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -727,7 +757,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -775,8 +805,17 @@
       <c r="D2" t="s">
         <v>16</v>
       </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
       <c r="F2" s="1">
         <v>43096</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43103</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">

--- a/Todo&Defect.xlsx
+++ b/Todo&Defect.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,26 @@
   </si>
   <si>
     <t>Solved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In progress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,7 +545,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -575,8 +595,14 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
       <c r="F2" s="1">
         <v>43096</v>
+      </c>
+      <c r="H2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
@@ -634,8 +660,14 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
       <c r="F6" s="1">
         <v>43100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -713,8 +745,14 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
       <c r="F11" s="1">
         <v>43100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
